--- a/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\StreamingAssets\resource\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE68D8E-8978-4F12-9538-2EB14FC088E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F032A68-5F5A-45A2-9DD8-FC87D59F1A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
+    <sheet name="test2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Chapter</t>
   </si>
@@ -92,6 +93,18 @@
   </si>
   <si>
     <t>대화테스트9번</t>
+  </si>
+  <si>
+    <t>kimchi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>god</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1092,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -1275,4 +1288,36 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F077A12-A8F1-4653-9682-E86BB0B56588}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F032A68-5F5A-45A2-9DD8-FC87D59F1A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D51EF-EA7B-400E-AC09-48919C802022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Chapter</t>
   </si>
@@ -32,9 +31,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Sprite</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -95,15 +91,39 @@
     <t>대화테스트9번</t>
   </si>
   <si>
-    <t>kimchi</t>
+    <t>Sprite1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
+    <t>Pos1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>god</t>
+    <t>Layer1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +747,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1103,18 +1129,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="39.25" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,193 +1155,293 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>213</v>
+      </c>
+      <c r="F2" s="3">
+        <v>213</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3">
+        <v>213</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>213</v>
+      </c>
+      <c r="F4" s="3">
+        <v>213</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3">
+        <v>213</v>
+      </c>
+      <c r="F5" s="3">
+        <v>213</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>213</v>
+      </c>
+      <c r="F6" s="3">
+        <v>213</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>213</v>
+      </c>
+      <c r="F7" s="3">
+        <v>213</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>213</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>213</v>
+      </c>
+      <c r="F8" s="3">
+        <v>213</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
         <v>7</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>213</v>
+      </c>
+      <c r="F9" s="3">
+        <v>213</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>213</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>213</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>213</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>213</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>213</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>213</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>213</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2">
-        <v>213</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F077A12-A8F1-4653-9682-E86BB0B56588}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
+      <c r="E10" s="3">
+        <v>213</v>
+      </c>
+      <c r="F10" s="3">
+        <v>213</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D51EF-EA7B-400E-AC09-48919C802022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F8590-A113-4EC2-845E-3F37D153AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Chapter</t>
   </si>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>Layer3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>testc</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1136,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,8 +1199,8 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
-        <v>213</v>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="3">
         <v>213</v>
@@ -1224,11 +1228,11 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
-        <v>213</v>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="3">
-        <v>213</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1253,11 +1257,11 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>213</v>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F4" s="3">
-        <v>213</v>
+        <v>-300</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1282,11 +1286,11 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
-        <v>213</v>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="3">
-        <v>213</v>
+        <v>-500</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1311,11 +1315,11 @@
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
-        <v>213</v>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="3">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1340,8 +1344,8 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3">
-        <v>213</v>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="3">
         <v>213</v>
@@ -1369,8 +1373,8 @@
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
-        <v>213</v>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="3">
         <v>213</v>
@@ -1398,8 +1402,8 @@
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>213</v>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="3">
         <v>213</v>
@@ -1427,8 +1431,8 @@
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>213</v>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="3">
         <v>213</v>

--- a/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F8590-A113-4EC2-845E-3F37D153AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60707637-3017-4CB3-A50D-BE6EF4E091ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Chapter</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>테스트1</t>
   </si>
   <si>
     <t>대화테스트1번</t>
@@ -128,6 +125,18 @@
   </si>
   <si>
     <t>testc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>charlotte</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>leni</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1136,7 +1145,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1159,31 +1168,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1194,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3">
         <v>213</v>
@@ -1208,12 +1217,24 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3">
+        <v>300</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3">
+        <v>500</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1223,13 +1244,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3">
         <v>1000</v>
@@ -1237,12 +1258,24 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3">
+        <v>500</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3">
+        <v>564</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1252,13 +1285,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>-300</v>
@@ -1268,10 +1301,18 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3">
+        <v>200</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1281,26 +1322,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I5" s="3">
+        <v>213</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3">
         <v>-500</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1310,13 +1357,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>258</v>
@@ -1324,12 +1371,24 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3">
+        <v>54</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1339,26 +1398,38 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3">
+        <v>55</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1368,26 +1439,38 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3">
-        <v>213</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1397,26 +1480,38 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="3">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1426,26 +1521,38 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3">
+        <v>654</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60707637-3017-4CB3-A50D-BE6EF4E091ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546274E-F631-4FB7-9583-C878E73E95F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="4990" yWindow="2660" windowWidth="26890" windowHeight="15670" activeTab="1" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Chapter</t>
   </si>
@@ -124,19 +125,56 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>testc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>charlotte</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>leni</t>
+    <t>{</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":1,"Name":"테스트2","Text":"대화테스트2번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":2,"Name":"테스트3","Text":"대화테스트3번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":3,"Name":"테스트4","Text":"대화테스트4번","Sprite1":308801,"Pos1":874,"Layer1":null,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":4,"Name":"테스트5","Text":"대화테스트5번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":5,"Name":"테스트6","Text":"대화테스트6번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":6,"Name":"테스트7","Text":"대화테스트7번","Sprite1":308801,"Pos1":874,"Layer1":1,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":7,"Name":"테스트8","Text":"대화테스트8번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":8,"Name":"테스트9","Text":"대화테스트9번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Test":</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1142,19 +1180,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="39.25" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1203,40 +1242,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
+      <c r="E2" s="3">
+        <v>308801</v>
       </c>
       <c r="F2" s="3">
-        <v>213</v>
+        <v>874</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="3">
-        <v>300</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>308001</v>
       </c>
       <c r="L2" s="3">
-        <v>500</v>
+        <v>874</v>
       </c>
       <c r="M2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1249,35 +1282,29 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
+      <c r="E3" s="3">
+        <v>308801</v>
       </c>
       <c r="F3" s="3">
-        <v>1000</v>
+        <v>874</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3">
-        <v>500</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>308001</v>
       </c>
       <c r="L3" s="3">
-        <v>564</v>
+        <v>874</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1290,31 +1317,29 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
+      <c r="E4" s="3">
+        <v>308801</v>
       </c>
       <c r="F4" s="3">
-        <v>-300</v>
+        <v>874</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>34</v>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>308001</v>
       </c>
       <c r="L4" s="3">
-        <v>200</v>
+        <v>874</v>
       </c>
       <c r="M4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1327,29 +1352,27 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <v>308801</v>
+      </c>
+      <c r="F5" s="3">
+        <v>874</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3">
-        <v>213</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>34</v>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>308001</v>
       </c>
       <c r="L5" s="3">
-        <v>-500</v>
+        <v>874</v>
       </c>
       <c r="M5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1362,35 +1385,29 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
+      <c r="E6" s="3">
+        <v>308801</v>
       </c>
       <c r="F6" s="3">
-        <v>258</v>
+        <v>874</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>34</v>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>308001</v>
       </c>
       <c r="L6" s="3">
-        <v>54</v>
+        <v>874</v>
       </c>
       <c r="M6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1403,35 +1420,29 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
+      <c r="E7" s="3">
+        <v>308801</v>
       </c>
       <c r="F7" s="3">
-        <v>200</v>
+        <v>874</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3">
-        <v>55</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>34</v>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>308001</v>
       </c>
       <c r="L7" s="3">
-        <v>2</v>
+        <v>874</v>
       </c>
       <c r="M7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1444,35 +1455,29 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
+      <c r="E8" s="3">
+        <v>308801</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>874</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>34</v>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>308001</v>
       </c>
       <c r="L8" s="3">
-        <v>2</v>
+        <v>874</v>
       </c>
       <c r="M8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1485,35 +1490,29 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
+      <c r="E9" s="3">
+        <v>308801</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>874</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>34</v>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>308001</v>
       </c>
       <c r="L9" s="3">
-        <v>21</v>
+        <v>874</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1526,29 +1525,23 @@
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
+      <c r="E10" s="3">
+        <v>308801</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>874</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="3">
-        <v>654</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>34</v>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>308001</v>
       </c>
       <c r="L10" s="3">
-        <v>3</v>
+        <v>874</v>
       </c>
       <c r="M10" s="3">
         <v>2</v>
@@ -1558,4 +1551,91 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748DA4E-B332-40AA-BCE6-74B3435AFCF9}">
+  <dimension ref="B1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialoguetest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546274E-F631-4FB7-9583-C878E73E95F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42FBF3-CFC2-4821-904E-E172D38A20D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4990" yWindow="2660" windowWidth="26890" windowHeight="15670" activeTab="1" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Chapter</t>
   </si>
@@ -175,6 +175,20 @@
   </si>
   <si>
     <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_308801</t>
+  </si>
+  <si>
+    <t>D_308801</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_308001</t>
+  </si>
+  <si>
+    <t>D_308001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1183,17 +1197,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="39.25" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1247,8 +1261,8 @@
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
-        <v>308801</v>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="3">
         <v>874</v>
@@ -1259,8 +1273,8 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>308001</v>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="L2" s="3">
         <v>874</v>
@@ -1269,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1282,8 +1296,8 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
-        <v>308801</v>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F3" s="3">
         <v>874</v>
@@ -1294,8 +1308,8 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>308001</v>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="L3" s="3">
         <v>874</v>
@@ -1304,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1317,8 +1331,8 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
-        <v>308801</v>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="3">
         <v>874</v>
@@ -1329,8 +1343,8 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>308001</v>
+      <c r="K4" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L4" s="3">
         <v>874</v>
@@ -1339,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1352,8 +1366,8 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
-        <v>308801</v>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="3">
         <v>874</v>
@@ -1362,8 +1376,8 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>308001</v>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L5" s="3">
         <v>874</v>
@@ -1372,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1399,8 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
-        <v>308801</v>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="3">
         <v>874</v>
@@ -1397,8 +1411,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>308001</v>
+      <c r="K6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L6" s="3">
         <v>874</v>
@@ -1407,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1420,8 +1434,8 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
-        <v>308801</v>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="3">
         <v>874</v>
@@ -1432,8 +1446,8 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>308001</v>
+      <c r="K7" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L7" s="3">
         <v>874</v>
@@ -1442,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1455,8 +1469,8 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
-        <v>308801</v>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="3">
         <v>874</v>
@@ -1467,8 +1481,8 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>308001</v>
+      <c r="K8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L8" s="3">
         <v>874</v>
@@ -1477,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1490,8 +1504,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3">
-        <v>308801</v>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F9" s="3">
         <v>874</v>
@@ -1502,8 +1516,8 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>308001</v>
+      <c r="K9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L9" s="3">
         <v>874</v>
@@ -1512,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1525,8 +1539,8 @@
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3">
-        <v>308801</v>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="3">
         <v>874</v>
@@ -1537,8 +1551,8 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>308001</v>
+      <c r="K10" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="L10" s="3">
         <v>874</v>
@@ -1557,78 +1571,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5748DA4E-B332-40AA-BCE6-74B3435AFCF9}">
   <dimension ref="B1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>34</v>
       </c>
